--- a/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Tables62-68.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Tables62-68.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCA0C4-DE3F-B744-A8E5-13B034C7FA55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D90C9E-1264-4845-9A4C-0764C8A0551B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28380" yWindow="460" windowWidth="21600" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20340" yWindow="2800" windowWidth="21600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$385</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="122">
   <si>
     <t>Sole</t>
   </si>
@@ -383,6 +386,9 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>All species</t>
   </si>
 </sst>
 </file>
@@ -748,15 +754,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -782,8 +788,11 @@
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>3346703</v>
@@ -997,8 +1006,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>113</v>
       </c>
@@ -1182,8 +1195,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>113</v>
       </c>
@@ -1367,8 +1384,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" s="3" t="s">
         <v>113</v>
       </c>
@@ -1501,8 +1522,12 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>113</v>
       </c>
@@ -1584,8 +1609,12 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C50" s="3" t="s">
         <v>113</v>
       </c>
@@ -1667,8 +1696,12 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C55" s="3" t="s">
         <v>113</v>
       </c>
@@ -1750,8 +1783,12 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C60" s="3" t="s">
         <v>113</v>
       </c>
@@ -1816,8 +1853,12 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C64" s="3" t="s">
         <v>113</v>
       </c>
@@ -1838,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D65" s="1">
         <v>502</v>
@@ -1865,18 +1906,31 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C67" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C68" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D68" s="1">
         <v>688308</v>
@@ -1988,8 +2042,12 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C75" s="3" t="s">
         <v>113</v>
       </c>
@@ -2088,8 +2146,12 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C81" s="3" t="s">
         <v>113</v>
       </c>
@@ -2154,8 +2216,12 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C85" s="3" t="s">
         <v>113</v>
       </c>
@@ -2237,8 +2303,12 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C90" s="3" t="s">
         <v>113</v>
       </c>
@@ -2286,8 +2356,12 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C93" s="3" t="s">
         <v>113</v>
       </c>
@@ -2346,8 +2420,12 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C97" s="3" t="s">
         <v>113</v>
       </c>
@@ -2395,13 +2473,23 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C100" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="4">
+        <f>SUM(D97:D98)-D99</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <f>SUM(E97:E98)-E99</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
@@ -2411,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D101" s="1">
         <v>26</v>
@@ -2438,18 +2526,33 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C103" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="D103" s="4">
+        <f>SUM(D100:D101)-D102</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <f>SUM(E100:E101)-E102</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B104" t="s">
         <v>18</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D104" s="1">
         <v>2290797</v>
@@ -2765,8 +2868,12 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C123" s="3" t="s">
         <v>113</v>
       </c>
@@ -2953,6 +3060,9 @@
       <c r="A134" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B134" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C134" s="3" t="s">
         <v>113</v>
       </c>
@@ -3102,8 +3212,12 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C143" s="3" t="s">
         <v>113</v>
       </c>
@@ -3202,8 +3316,12 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C149" s="3" t="s">
         <v>113</v>
       </c>
@@ -3285,7 +3403,12 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="2"/>
+      <c r="A154" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
       <c r="C154" s="3" t="s">
         <v>113</v>
       </c>
@@ -3367,8 +3490,12 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C159" s="3" t="s">
         <v>113</v>
       </c>
@@ -3388,8 +3515,8 @@
       <c r="B160" t="s">
         <v>29</v>
       </c>
-      <c r="C160" t="s">
-        <v>9</v>
+      <c r="C160" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D160" s="1">
         <v>35441</v>
@@ -3416,18 +3543,33 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" t="s">
+        <v>29</v>
+      </c>
       <c r="C162" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
+      <c r="D162" s="4">
+        <f>SUM(D159:D160)-D161</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <f>SUM(E159:E160)-E161</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B163" t="s">
         <v>30</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D163" s="1">
         <v>2435003</v>
@@ -3709,7 +3851,12 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="2"/>
+      <c r="A180" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
       <c r="C180" s="3" t="s">
         <v>113</v>
       </c>
@@ -3876,8 +4023,12 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C190" s="3" t="s">
         <v>113</v>
       </c>
@@ -3993,7 +4144,12 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A197" s="2"/>
+      <c r="A197" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B197" t="s">
+        <v>40</v>
+      </c>
       <c r="C197" s="3" t="s">
         <v>113</v>
       </c>
@@ -4013,8 +4169,8 @@
       <c r="B198" t="s">
         <v>29</v>
       </c>
-      <c r="C198" t="s">
-        <v>9</v>
+      <c r="C198" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D198" s="1">
         <v>61</v>
@@ -4041,18 +4197,33 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
       <c r="C200" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
+      <c r="D200" s="4">
+        <f>SUM(D197:D198)-D199</f>
+        <v>0</v>
+      </c>
+      <c r="E200" s="4">
+        <f>SUM(E197:E198)-E199</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B201" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C201" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D201" s="1">
         <v>1308012</v>
@@ -4283,8 +4454,12 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C215" s="3" t="s">
         <v>113</v>
       </c>
@@ -4383,8 +4558,12 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C221" s="3" t="s">
         <v>113</v>
       </c>
@@ -4483,8 +4662,12 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C227" s="3" t="s">
         <v>113</v>
       </c>
@@ -4600,8 +4783,12 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C234" s="3" t="s">
         <v>113</v>
       </c>
@@ -4649,13 +4836,21 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C237" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
+      <c r="D237" s="4">
+        <v>0</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
@@ -4692,13 +4887,21 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C240" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
+      <c r="D240" s="4">
+        <v>0</v>
+      </c>
+      <c r="E240" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
@@ -4708,7 +4911,7 @@
         <v>29</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D241" s="1">
         <v>4289</v>
@@ -4735,18 +4938,31 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C243" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
+      <c r="D243" s="4">
+        <v>0</v>
+      </c>
+      <c r="E243" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B244" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C244" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D244" s="1">
         <v>25110287</v>
@@ -4960,8 +5176,12 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C257" s="3" t="s">
         <v>113</v>
       </c>
@@ -5213,8 +5433,12 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C272" s="3" t="s">
         <v>113</v>
       </c>
@@ -5415,8 +5639,12 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
+      <c r="A284" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C284" s="3" t="s">
         <v>113</v>
       </c>
@@ -5821,6 +6049,12 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A308" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C308" s="3" t="s">
         <v>113</v>
       </c>
@@ -6089,8 +6323,12 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="A324" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C324" s="3" t="s">
         <v>113</v>
       </c>
@@ -6291,8 +6529,12 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="A336" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C336" s="3" t="s">
         <v>113</v>
       </c>
@@ -6408,8 +6650,12 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C343" s="3" t="s">
         <v>113</v>
       </c>
@@ -6508,8 +6754,12 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C349" s="3" t="s">
         <v>113</v>
       </c>
@@ -6529,8 +6779,8 @@
       <c r="B350" t="s">
         <v>29</v>
       </c>
-      <c r="C350" t="s">
-        <v>9</v>
+      <c r="C350" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D350" s="1">
         <v>11620</v>
@@ -6557,18 +6807,31 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A352" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B352" t="s">
+        <v>29</v>
+      </c>
       <c r="C352" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
+      <c r="D352" s="4">
+        <v>0</v>
+      </c>
+      <c r="E352" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B353" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C353" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D353" s="1">
         <v>25283444</v>
@@ -6918,8 +7181,12 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
+      <c r="A374" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C374" s="3" t="s">
         <v>113</v>
       </c>
@@ -7052,8 +7319,12 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
+      <c r="A382" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C382" s="3" t="s">
         <v>113</v>
       </c>
@@ -7074,7 +7345,7 @@
         <v>29</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D383" s="1">
         <v>16571</v>
@@ -7100,14 +7371,25 @@
         <v>101197</v>
       </c>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A385" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C385" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
+      <c r="D385" s="4">
+        <v>0</v>
+      </c>
+      <c r="E385" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E385" xr:uid="{B4EF7D86-5540-1040-915F-C6A6AB7A883C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Tables62-68.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Tables62-68.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D90C9E-1264-4845-9A4C-0764C8A0551B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C242EC75-F6BD-C949-B8BE-A9CCBED4E8B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20340" yWindow="2800" windowWidth="21600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="B368" sqref="B368"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1374,7 +1374,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1">
         <v>527805</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Tables62-68.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Tables62-68.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C242EC75-F6BD-C949-B8BE-A9CCBED4E8B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A047155A-D0B0-0E49-9F47-6BEB780DD74D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="2800" windowWidth="21600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="3340" windowWidth="21600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1641,7 +1641,7 @@
         <v>116695</v>
       </c>
       <c r="E51" s="1">
-        <v>549151</v>
+        <v>549154</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="E55" s="4">
         <f>SUM(E51:E53)-E54</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
